--- a/Данные/Въездные турпоездки.xlsx
+++ b/Данные/Въездные турпоездки.xlsx
@@ -90,9 +90,6 @@
     <t>Израиль</t>
   </si>
   <si>
-    <t>Другие страны</t>
-  </si>
-  <si>
     <t>Австралия</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>Страна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Другие </t>
   </si>
 </sst>
 </file>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="L66" sqref="L66"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +622,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1">
         <v>2014</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="12">
         <v>0</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="12">
         <v>0</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="12">
         <v>0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="12">
         <v>0</v>
@@ -926,7 +926,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="12">
         <v>0</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="12">
         <v>0</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="12">
         <v>0</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="12">
         <v>0</v>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="12">
         <v>0</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="12">
         <v>0</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="12">
         <v>0</v>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="12">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="12">
         <v>0</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="12">
         <v>0</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="12">
         <v>0</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="12">
         <v>0</v>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="12">
         <v>0</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="12">
         <v>0</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="12">
         <v>0</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="12">
         <v>0</v>
@@ -1630,7 +1630,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="12">
         <v>0</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="12">
         <v>0</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="12">
         <v>0</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="12">
         <v>0</v>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B39" s="12">
         <v>0</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="12">
         <v>0</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="12">
         <v>114</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="12">
         <v>0</v>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45" s="12">
         <v>0</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="12">
         <v>0</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" s="12">
         <v>0</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="48" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" s="12">
         <v>215</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51" s="12">
         <v>0</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="12">
         <v>0</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58" s="12">
         <v>0</v>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59" s="12">
         <v>0</v>
@@ -2526,7 +2526,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60" s="12">
         <v>0</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B61" s="12">
         <v>0</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" s="12">
         <v>0</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B64" s="20">
         <v>0</v>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="65" spans="1:67" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B65" s="20">
         <v>0</v>
@@ -2718,7 +2718,7 @@
     </row>
     <row r="66" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B66" s="20">
         <v>0</v>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="67" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="B67" s="12">
         <v>1648</v>

--- a/Данные/Въездные турпоездки.xlsx
+++ b/Данные/Въездные турпоездки.xlsx
@@ -48,9 +48,6 @@
     <t>Армения</t>
   </si>
   <si>
-    <t>Республика Молдова</t>
-  </si>
-  <si>
     <t>Таджикистан</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>Ирландия</t>
   </si>
   <si>
-    <t>Исламская Республика Иран</t>
-  </si>
-  <si>
     <t>Испания</t>
   </si>
   <si>
@@ -159,9 +153,6 @@
     <t>Португалия</t>
   </si>
   <si>
-    <t>Республика Корея</t>
-  </si>
-  <si>
     <t>Румыния</t>
   </si>
   <si>
@@ -171,18 +162,12 @@
     <t>Словакия</t>
   </si>
   <si>
-    <t>Соединенное Королевство (Великобритания)</t>
-  </si>
-  <si>
     <t>Таиланд</t>
   </si>
   <si>
     <t>Хорватия</t>
   </si>
   <si>
-    <t>Чешская Республика</t>
-  </si>
-  <si>
     <t>Швейцария</t>
   </si>
   <si>
@@ -192,9 +177,6 @@
     <t>Южная Осетия</t>
   </si>
   <si>
-    <t>Южно-Африканская Республика</t>
-  </si>
-  <si>
     <t>Япония</t>
   </si>
   <si>
@@ -210,9 +192,6 @@
     <t>Саудовская аравия</t>
   </si>
   <si>
-    <t>Тайвань (Китай)</t>
-  </si>
-  <si>
     <t>Чили</t>
   </si>
   <si>
@@ -220,6 +199,27 @@
   </si>
   <si>
     <t xml:space="preserve">Другие </t>
+  </si>
+  <si>
+    <t>Иран</t>
+  </si>
+  <si>
+    <t>Рес. Корея</t>
+  </si>
+  <si>
+    <t>Рес. Молдова</t>
+  </si>
+  <si>
+    <t>Чешская Рес.</t>
+  </si>
+  <si>
+    <t>Южно-Африканская Рес.</t>
+  </si>
+  <si>
+    <t>Великобритания</t>
+  </si>
+  <si>
+    <t>Тайвань</t>
   </si>
 </sst>
 </file>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +622,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1">
         <v>2014</v>
@@ -670,7 +670,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="12">
         <v>357</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="12">
         <v>0</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="12">
         <v>0</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="12">
         <v>0</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="12">
         <v>319</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="12">
         <v>0</v>
@@ -926,7 +926,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="12">
         <v>0</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="12">
         <v>0</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="12">
         <v>0</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="12">
         <v>0</v>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B15" s="12">
         <v>0</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="12">
         <v>0</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="12">
         <v>0</v>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="12">
         <v>0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="12">
         <v>0</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="12">
         <v>150</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="12">
         <v>0</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B22" s="12">
         <v>0</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="12">
         <v>0</v>
@@ -1372,9 +1372,9 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B24" s="12">
         <v>0</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B25" s="12">
         <v>0</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="12">
         <v>207</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28" s="12">
         <v>0</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" s="12">
         <v>339</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31" s="12">
         <v>0</v>
@@ -1630,7 +1630,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B32" s="12">
         <v>0</v>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" s="12">
         <v>295</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" s="12">
         <v>425</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B35" s="12">
         <v>0</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36" s="12">
         <v>158</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B37" s="12">
         <v>0</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B38" s="12">
         <v>0</v>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B39" s="12">
         <v>0</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B41" s="12">
         <v>0</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B42" s="12">
         <v>114</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="B43" s="12">
         <v>618</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B44" s="12">
         <v>0</v>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B45" s="12">
         <v>0</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B46" s="12">
         <v>0</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B47" s="12">
         <v>0</v>
@@ -2140,9 +2140,9 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B48" s="12">
         <v>215</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B49" s="12">
         <v>245</v>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B50" s="12">
         <v>482</v>
@@ -2236,9 +2236,9 @@
         <v>348.39</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B51" s="12">
         <v>0</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B52" s="12">
         <v>0</v>
@@ -2302,7 +2302,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B53" s="12">
         <v>263</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B57" s="12">
         <v>199</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B58" s="12">
         <v>0</v>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B59" s="12">
         <v>0</v>
@@ -2526,7 +2526,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B60" s="12">
         <v>0</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B61" s="12">
         <v>0</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B62" s="12">
         <v>0</v>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B63" s="12">
         <v>331</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B64" s="20">
         <v>0</v>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="65" spans="1:67" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B65" s="20">
         <v>0</v>
@@ -2718,7 +2718,7 @@
     </row>
     <row r="66" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B66" s="20">
         <v>0</v>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="67" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B67" s="12">
         <v>1648</v>

--- a/Данные/Въездные турпоездки.xlsx
+++ b/Данные/Въездные турпоездки.xlsx
@@ -267,10 +267,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -280,7 +291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
@@ -326,6 +337,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -609,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1948,7 +1960,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>61</v>
       </c>
@@ -1980,7 +1992,7 @@
         <v>6.2750000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>62</v>
       </c>
@@ -2281,8 +2293,8 @@
       <c r="D52" s="13">
         <v>1319.03</v>
       </c>
-      <c r="E52" s="14">
-        <v>1017</v>
+      <c r="E52" s="21">
+        <v>45</v>
       </c>
       <c r="F52" s="15">
         <v>54</v>
@@ -2492,7 +2504,7 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>

--- a/Данные/Въездные турпоездки.xlsx
+++ b/Данные/Въездные турпоездки.xlsx
@@ -267,21 +267,10 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -291,7 +280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
@@ -337,7 +326,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -621,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2259,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="D51" s="13">
-        <v>8569.2639999999992</v>
+        <v>0</v>
       </c>
       <c r="E51" s="14">
-        <v>8723</v>
+        <v>0</v>
       </c>
       <c r="F51" s="15">
         <v>13</v>
@@ -2293,7 +2281,7 @@
       <c r="D52" s="13">
         <v>1319.03</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="4">
         <v>45</v>
       </c>
       <c r="F52" s="15">
